--- a/hiragana-katakana-table.xlsx
+++ b/hiragana-katakana-table.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6fe265801eb3a54/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\hiragana-katakana-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8AABDE0A-0FA6-4724-91AA-857155CE1C43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C634062F-94F1-40ED-924D-D57B739CB8AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB783D1-6198-4F4D-B728-5736D871AEBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630" activeTab="1" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="hiragana-simple" sheetId="3" r:id="rId1"/>
+    <sheet name="katakana-simple" sheetId="5" r:id="rId2"/>
+    <sheet name="hiragana-katakana-full" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="236">
   <si>
     <t>∅</t>
   </si>
@@ -428,9 +429,6 @@
     <t>びゃ ビャ</t>
   </si>
   <si>
-    <t>びゅ ビョ</t>
-  </si>
-  <si>
     <t>びょ ビョ</t>
   </si>
   <si>
@@ -456,6 +454,413 @@
   </si>
   <si>
     <t>ぴょ ピョ</t>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k (g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s (z)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t (d)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h (b,p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>か　が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さ　ざ</t>
+  </si>
+  <si>
+    <t>た　だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>は　ば　ぱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>や</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>き　ぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>す　ず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せ　ぜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そ　ぞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ち　ぢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">し　じ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">つ　づ‘ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て　で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と　ど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひ　び　ぴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふ　ぶ　ぷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へ　べ　ぺ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほ　ぼ　ぽ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びゅ ビュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カ　ガ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キ　ギ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ク　グ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケ　ゲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コ　ゴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サ　ザ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シ　ジ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ス　ズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セ　ゼ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ソ　ゾ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タ　ダ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チ　ヂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツ　ヅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テ　デ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ト　ド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ　バ　パ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒ　ビ　ピ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フ　ブ　プ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘ　ベ　ペ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホ　ボ　ポ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ワ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -842,34 +1247,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676F3DE-292F-4098-8BC9-F9B19B6E1B64}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9536FC7-4570-406D-A5D1-22E6FA532257}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC612DE-AA0C-421D-BD04-AF9F18542698}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1294,10 +2182,10 @@
         <v>124</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1305,28 +2193,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1350,5 +2238,6 @@
     <hyperlink ref="I12" r:id="rId1" display="https://en.wikipedia.org/wiki/%E3%82%9E" xr:uid="{554BD1CA-C38C-406E-AB01-CB2C86FA9E65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/hiragana-katakana-table.xlsx
+++ b/hiragana-katakana-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\hiragana-katakana-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB783D1-6198-4F4D-B728-5736D871AEBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C65D8-A86B-46A4-9DA6-BF638D4B948C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
   </bookViews>
   <sheets>
     <sheet name="hiragana-simple" sheetId="3" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>ヂュ ju</t>
   </si>
   <si>
-    <t>ヂィ jo</t>
-  </si>
-  <si>
     <t>しゃ シャ sha</t>
   </si>
   <si>
@@ -860,6 +857,10 @@
   </si>
   <si>
     <t>ン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヂョ jo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,7 +1250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676F3DE-292F-4098-8BC9-F9B19B6E1B64}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
@@ -1262,19 +1263,19 @@
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1282,79 +1283,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1362,39 +1363,39 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1402,19 +1403,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1422,15 +1423,15 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1438,19 +1439,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1458,13 +1459,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1472,7 +1473,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1500,6 +1501,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1540,79 +1542,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1620,39 +1622,39 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1660,19 +1662,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1680,13 +1682,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1694,19 +1696,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,10 +1716,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1725,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1745,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC612DE-AA0C-421D-BD04-AF9F18542698}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1859,13 +1861,13 @@
         <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1873,28 +1875,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1902,28 +1904,28 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1931,28 +1933,28 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1960,28 +1962,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1989,15 +1991,15 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2008,28 +2010,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2037,13 +2039,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2054,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2063,10 +2065,10 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>19</v>
@@ -2077,28 +2079,28 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2106,28 +2108,28 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2135,10 +2137,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -2147,7 +2149,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>46</v>
@@ -2156,7 +2158,7 @@
         <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2164,28 +2166,28 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2193,28 +2195,28 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">

--- a/hiragana-katakana-table.xlsx
+++ b/hiragana-katakana-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\hiragana-katakana-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C65D8-A86B-46A4-9DA6-BF638D4B948C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAF092-1EE4-45BE-912B-1C3ED3805D8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="2" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
   </bookViews>
   <sheets>
     <sheet name="hiragana-simple" sheetId="3" r:id="rId1"/>
@@ -497,370 +497,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>た　だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>は　ば　ぱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ま</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>や</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>き　ぎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゆ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>す　ず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せ　ぜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そ　ぞ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>の</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て　で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と　ど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひ　び　ぴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>へ　べ　ぺ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほ　ぼ　ぽ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びゅ ビュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>オ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カ　ガ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キ　ギ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ク　グ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ケ　ゲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コ　ゴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サ　ザ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ス　ズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セ　ゼ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ソ　ゾ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>タ　ダ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テ　デ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ト　ド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ナ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ハ　バ　パ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒ　ビ　ピ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヘ　ベ　ペ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホ　ボ　ポ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>モ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ワ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヂョ jo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>さ　ざ</t>
-  </si>
-  <si>
-    <t>た　だ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>な</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>は　ば　ぱ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ま</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>や</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ら</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>わ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>き　ぎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>く</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ゆ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>よ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>す　ず</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>せ　ぜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>そ　ぞ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ち　ぢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>に</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ぬ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ね</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>の</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">し　じ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">つ　づ‘ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>て　で</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>と　ど</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ひ　び　ぴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ふ　ぶ　ぷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>へ　べ　ぺ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ほ　ぼ　ぽ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>み</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>む</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>め</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>も</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>り</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>れ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ろ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>を</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>びゅ ビュ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ア</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>イ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ウ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>エ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>オ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>カ　ガ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>キ　ギ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ク　グ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ケ　ゲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>コ　ゴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>サ　ザ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>シ　ジ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ス　ズ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>セ　ゼ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ソ　ゾ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>タ　ダ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>チ　ヂ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ツ　ヅ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>テ　デ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ト　ド</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ナ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ニ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヌ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ネ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ノ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ハ　バ　パ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヒ　ビ　ピ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>フ　ブ　プ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヘ　ベ　ペ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ホ　ボ　ポ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>マ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ミ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ム</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>メ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>モ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ユ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ラ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>リ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ル</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>レ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ロ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ワ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ヂョ jo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ち chi　ぢ ji, dji, jyi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">し shi　じ ji </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふ fu　ぶ　ぷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つ tsu　づ dzu, zu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フ fu　ブ　プ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シ shi　ジ ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チ chi　ヂ ji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツ tsu　ヅ zu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,13 +1252,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:F12"/>
+      <selection activeCell="C4" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1286,16 +1290,16 @@
         <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1306,16 +1310,16 @@
         <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1323,19 +1327,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1343,19 +1347,19 @@
         <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1363,19 +1367,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1383,19 +1387,19 @@
         <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1403,19 +1407,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1423,15 +1427,15 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1439,19 +1443,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1459,13 +1463,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1473,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1509,14 +1513,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9536FC7-4570-406D-A5D1-22E6FA532257}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1542,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1562,19 +1569,19 @@
         <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1582,19 +1589,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1602,19 +1609,19 @@
         <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1622,19 +1629,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1642,19 +1649,19 @@
         <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1662,19 +1669,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1682,13 +1689,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1696,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1716,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1727,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1747,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC612DE-AA0C-421D-BD04-AF9F18542698}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2158,7 +2165,7 @@
         <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2184,7 +2191,7 @@
         <v>123</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>124</v>

--- a/hiragana-katakana-table.xlsx
+++ b/hiragana-katakana-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\hiragana-katakana-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAF092-1EE4-45BE-912B-1C3ED3805D8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B9455F-9BDA-4239-9F3B-53472B9874B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{F73E995A-1160-4FBF-8CE4-03AA8AF3D94D}"/>
   </bookViews>
   <sheets>
     <sheet name="hiragana-simple" sheetId="3" r:id="rId1"/>
@@ -545,18 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>く</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>け</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>こ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ゆ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,6 +850,18 @@
   </si>
   <si>
     <t>ツ tsu　ヅ zu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>く　ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>け　げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こ　ご</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676F3DE-292F-4098-8BC9-F9B19B6E1B64}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1313,13 +1313,13 @@
         <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1327,19 +1327,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1350,16 +1350,16 @@
         <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1370,16 +1370,16 @@
         <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1390,16 +1390,16 @@
         <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1410,16 +1410,16 @@
         <v>147</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1431,11 +1431,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1446,16 +1446,16 @@
         <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1477,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1513,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9536FC7-4570-406D-A5D1-22E6FA532257}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1549,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1569,19 +1569,19 @@
         <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1589,19 +1589,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1609,19 +1609,19 @@
         <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1629,19 +1629,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1649,19 +1649,19 @@
         <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1669,19 +1669,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1689,13 +1689,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1703,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1723,10 +1723,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1747,6 +1747,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2165,7 +2166,7 @@
         <v>47</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2191,7 +2192,7 @@
         <v>123</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>124</v>
